--- a/files/xlsx_file.xlsx
+++ b/files/xlsx_file.xlsx
@@ -18,6 +18,12 @@
     <r>
       <t>файле</t>
     </r>
+  </si>
+  <si>
+    <t>строка 2</t>
+  </si>
+  <si>
+    <t>строка 3</t>
   </si>
 </sst>
 </file>
@@ -176,16 +182,19 @@
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -285,6 +294,16 @@
         <v>0</v>
       </c>
     </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>
